--- a/Liushui/output/sample2.xlsx
+++ b/Liushui/output/sample2.xlsx
@@ -477,11 +477,7 @@
       <c r="M2" t="n">
         <v>327470.96</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>G9581500107951C</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -523,11 +519,7 @@
       <c r="M3" t="n">
         <v>327464.45</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>G9581500208365C</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,11 +561,7 @@
       <c r="M4" t="n">
         <v>327414.45</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>G9581500473249C</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -615,11 +603,7 @@
       <c r="M5" t="n">
         <v>280822.45</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>K0007500174529C</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -661,11 +645,7 @@
       <c r="M6" t="n">
         <v>265142.45</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>K1763100061616C</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -715,11 +695,7 @@
       <c r="M7" t="n">
         <v>240656.65</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>G1753100085523C</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -765,11 +741,7 @@
       <c r="M8" t="n">
         <v>237238.92</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>K8944700152269C</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -811,11 +783,7 @@
       <c r="M9" t="n">
         <v>237229.61</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>G8954300110589C</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -857,11 +825,7 @@
       <c r="M10" t="n">
         <v>237179.61</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>G8954300490060C</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -911,11 +875,7 @@
       <c r="M11" t="n">
         <v>224936.71</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>G9065700100371C</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -965,11 +925,7 @@
       <c r="M12" t="n">
         <v>211492.58</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>G9065700100373C</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1019,11 +975,7 @@
       <c r="M13" t="n">
         <v>198138.45</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>G9065700100375C</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1073,11 +1025,7 @@
       <c r="M14" t="n">
         <v>181344.32</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>G9065700100377C</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1127,11 +1075,7 @@
       <c r="M15" t="n">
         <v>170746.07</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>G9065700100379C</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1181,11 +1125,7 @@
       <c r="M16" t="n">
         <v>147601.94</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>G9065700100383C</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1235,11 +1175,7 @@
       <c r="M17" t="n">
         <v>116983.56</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>G9065700100385C</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1289,11 +1225,7 @@
       <c r="M18" t="n">
         <v>83709.17999999999</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>G9065700100387C</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1343,11 +1275,7 @@
       <c r="M19" t="n">
         <v>56565.76</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>G9065700100389C</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1389,11 +1317,7 @@
       <c r="M20" t="n">
         <v>9973.76</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>K0445200040103C</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1439,11 +1363,7 @@
       <c r="M21" t="n">
         <v>4421.31</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>K7856400149721C</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1493,11 +1413,7 @@
       <c r="M22" t="n">
         <v>304421.31</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>C0090800021217C</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1547,11 +1463,7 @@
       <c r="M23" t="n">
         <v>164421.31</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>G5172400011609C</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1593,11 +1505,7 @@
       <c r="M24" t="n">
         <v>148741.31</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>K5308500212504C</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1647,11 +1555,7 @@
       <c r="M25" t="n">
         <v>648741.3100000001</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>C0292300025664C</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1701,11 +1605,7 @@
       <c r="M26" t="n">
         <v>648740.3100000001</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>G0977100116896C</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1751,11 +1651,7 @@
       <c r="M27" t="n">
         <v>648741.3100000001</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>G3403600300545C</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1797,11 +1693,7 @@
       <c r="M28" t="n">
         <v>648862.21</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>G3555100003093C</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1851,11 +1743,7 @@
       <c r="M29" t="n">
         <v>613472.01</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>G9055600108949C</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1905,11 +1793,7 @@
       <c r="M30" t="n">
         <v>601904.21</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>G9055600108951C</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1959,11 +1843,7 @@
       <c r="M31" t="n">
         <v>586219.6</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>G9055600108953C</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2013,11 +1893,7 @@
       <c r="M32" t="n">
         <v>573671.3</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>G9055600108955C</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2067,11 +1943,7 @@
       <c r="M33" t="n">
         <v>572926.5</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>G9055600108957C</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2121,11 +1993,7 @@
       <c r="M34" t="n">
         <v>564734.5</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>G9055600108961C</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2175,11 +2043,7 @@
       <c r="M35" t="n">
         <v>564190.9</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>G9055600108963C</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2229,11 +2093,7 @@
       <c r="M36" t="n">
         <v>563297.1</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>G9055600108965C</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2283,11 +2143,7 @@
       <c r="M37" t="n">
         <v>63297.1</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>G9055600179613C</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2329,11 +2185,7 @@
       <c r="M38" t="n">
         <v>63217.95</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>G1430400163103C</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2375,11 +2227,7 @@
       <c r="M39" t="n">
         <v>63206.79</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>G1430400163106C</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2421,11 +2269,7 @@
       <c r="M40" t="n">
         <v>63156.79</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>G1430400282237C</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2471,11 +2315,7 @@
       <c r="M41" t="n">
         <v>353707.79</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>G9791500429212C</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2517,11 +2357,7 @@
       <c r="M42" t="n">
         <v>338027.79</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>K5813200262535C</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2567,11 +2403,7 @@
       <c r="M43" t="n">
         <v>328435.71</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>K6149000082478C</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2621,11 +2453,7 @@
       <c r="M44" t="n">
         <v>290906.3</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>G1403700048195C</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2675,11 +2503,7 @@
       <c r="M45" t="n">
         <v>278663.4</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>G1403700048197C</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2729,11 +2553,7 @@
       <c r="M46" t="n">
         <v>265219.28</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>G1403700048199C</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2783,11 +2603,7 @@
       <c r="M47" t="n">
         <v>251865.16</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>G1403700048201C</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2837,11 +2653,7 @@
       <c r="M48" t="n">
         <v>234358.09</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>G1403700048203C</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2891,11 +2703,7 @@
       <c r="M49" t="n">
         <v>223759.84</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>G1403700048205C</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2945,11 +2753,7 @@
       <c r="M50" t="n">
         <v>200448.24</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>G1403700048207C</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2999,11 +2803,7 @@
       <c r="M51" t="n">
         <v>169770.89</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>G1403700048209C</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3053,11 +2853,7 @@
       <c r="M52" t="n">
         <v>136213.54</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>G1403700048211C</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3107,11 +2903,7 @@
       <c r="M53" t="n">
         <v>108134.08</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>G1403700048213C</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3153,11 +2945,7 @@
       <c r="M54" t="n">
         <v>61542.08</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>K7148700039712C</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3199,11 +2987,7 @@
       <c r="M55" t="n">
         <v>61492.08</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>G4449300265751C</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3245,11 +3029,7 @@
       <c r="M56" t="n">
         <v>61454.84</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>G4449300722889C</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3291,11 +3071,7 @@
       <c r="M57" t="n">
         <v>61449.26</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>G4449300722892C</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3341,11 +3117,7 @@
       <c r="M58" t="n">
         <v>272513.26</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>G8878900051720C</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3395,11 +3167,7 @@
       <c r="M59" t="n">
         <v>472513.26</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>G5532400366274C</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3441,11 +3209,7 @@
       <c r="M60" t="n">
         <v>454523.26</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>K2867700050275C</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3491,11 +3255,7 @@
       <c r="M61" t="n">
         <v>444494.67</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>K3013200129094C</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3545,11 +3305,7 @@
       <c r="M62" t="n">
         <v>431050.54</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>G1579000086309C</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3599,11 +3355,7 @@
       <c r="M63" t="n">
         <v>417696.41</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>G1579000086311C</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3653,11 +3405,7 @@
       <c r="M64" t="n">
         <v>401405.23</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>G1579000086313C</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3707,11 +3455,7 @@
       <c r="M65" t="n">
         <v>390806.98</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>G1579000086315C</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3761,11 +3505,7 @@
       <c r="M66" t="n">
         <v>368755.73</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>G1579000086317C</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3815,11 +3555,7 @@
       <c r="M67" t="n">
         <v>339004.48</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>G1579000086319C</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3869,11 +3605,7 @@
       <c r="M68" t="n">
         <v>306373.23</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>G1579000086321C</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3923,11 +3655,7 @@
       <c r="M69" t="n">
         <v>280432.17</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>G1579000086323C</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3977,11 +3705,7 @@
       <c r="M70" t="n">
         <v>270010.36</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>G1579000086325C</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4031,11 +3755,7 @@
       <c r="M71" t="n">
         <v>257767.46</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>G1579000086327C</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4085,11 +3805,7 @@
       <c r="M72" t="n">
         <v>147434.13</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>G1579000086329C</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4139,11 +3855,7 @@
       <c r="M73" t="n">
         <v>134343.13</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>G1579000086335C</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4193,11 +3905,7 @@
       <c r="M74" t="n">
         <v>94528.33</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>G1579000086337C</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4247,11 +3955,7 @@
       <c r="M75" t="n">
         <v>73548.33</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>G1579000086341C</t>
-        </is>
-      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4301,11 +4005,7 @@
       <c r="M76" t="n">
         <v>70496.33</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>G1579000086343C</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4355,11 +4055,7 @@
       <c r="M77" t="n">
         <v>67076.33</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>G1579000086345C</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4409,11 +4105,7 @@
       <c r="M78" t="n">
         <v>64488.83</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>G1579000086353C</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4455,11 +4147,7 @@
       <c r="M79" t="n">
         <v>11032.83</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>K6224000420145C</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4509,11 +4197,7 @@
       <c r="M80" t="n">
         <v>7393.83</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>G4863200026390C</t>
-        </is>
-      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4563,11 +4247,7 @@
       <c r="M81" t="n">
         <v>6793.83</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>G4863200026392C</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4617,11 +4297,7 @@
       <c r="M82" t="n">
         <v>56793.83</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>G6057500071459C</t>
-        </is>
-      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4671,11 +4347,7 @@
       <c r="M83" t="n">
         <v>106793.83</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>G6057500079491C</t>
-        </is>
-      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4725,11 +4397,7 @@
       <c r="M84" t="n">
         <v>76793.83</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>G1373400038008C</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4779,11 +4447,7 @@
       <c r="M85" t="n">
         <v>46793.83</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>G1373400038012C</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4833,11 +4497,7 @@
       <c r="M86" t="n">
         <v>49793.83</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>KK788300008555C</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4887,11 +4547,7 @@
       <c r="M87" t="n">
         <v>484.31</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>G0025800147991C</t>
-        </is>
-      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4941,11 +4597,7 @@
       <c r="M88" t="n">
         <v>1200484.31</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>C0057300032136C</t>
-        </is>
-      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4995,11 +4647,7 @@
       <c r="M89" t="n">
         <v>1150484.31</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>G0712400100556C</t>
-        </is>
-      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5049,11 +4697,7 @@
       <c r="M90" t="n">
         <v>950484.3100000001</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>G0712400100558C</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5103,11 +4747,7 @@
       <c r="M91" t="n">
         <v>850484.3100000001</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>G0712400100560C</t>
-        </is>
-      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5157,11 +4797,7 @@
       <c r="M92" t="n">
         <v>847484.3100000001</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>G0712400100562C</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5203,11 +4839,7 @@
       <c r="M93" t="n">
         <v>847472.22</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>G9520700085151C</t>
-        </is>
-      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5249,11 +4881,7 @@
       <c r="M94" t="n">
         <v>847383.76</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>G9520700085154C</t>
-        </is>
-      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5295,11 +4923,7 @@
       <c r="M95" t="n">
         <v>847333.76</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>G9520700191523C</t>
-        </is>
-      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5345,11 +4969,7 @@
       <c r="M96" t="n">
         <v>826790.17</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>K9404100091196C</t>
-        </is>
-      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5391,11 +5011,7 @@
       <c r="M97" t="n">
         <v>808800.17</v>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>K2380600054390C</t>
-        </is>
-      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5445,11 +5061,7 @@
       <c r="M98" t="n">
         <v>797121.27</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>G3070400149157C</t>
-        </is>
-      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5499,11 +5111,7 @@
       <c r="M99" t="n">
         <v>740075.8199999999</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>G4706800260789C</t>
-        </is>
-      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5553,11 +5161,7 @@
       <c r="M100" t="n">
         <v>726631.7</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>G4706800260791C</t>
-        </is>
-      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5607,11 +5211,7 @@
       <c r="M101" t="n">
         <v>713771.95</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>G4706800260793C</t>
-        </is>
-      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5661,11 +5261,7 @@
       <c r="M102" t="n">
         <v>697720.7</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>G4706800260795C</t>
-        </is>
-      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5715,11 +5311,7 @@
       <c r="M103" t="n">
         <v>687122.45</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>G4706800260797C</t>
-        </is>
-      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5769,11 +5361,7 @@
       <c r="M104" t="n">
         <v>665071.2</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>G4706800260799C</t>
-        </is>
-      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5823,11 +5411,7 @@
       <c r="M105" t="n">
         <v>635319.95</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>G4706800260801C</t>
-        </is>
-      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5877,11 +5461,7 @@
       <c r="M106" t="n">
         <v>602688.7</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>G4706800260803C</t>
-        </is>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5931,11 +5511,7 @@
       <c r="M107" t="n">
         <v>588364.5699999999</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>G4706800260805C</t>
-        </is>
-      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5985,11 +5561,7 @@
       <c r="M108" t="n">
         <v>540454.5699999999</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>G4706800260809C</t>
-        </is>
-      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6039,11 +5611,7 @@
       <c r="M109" t="n">
         <v>515234.57</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>G4706800260815C</t>
-        </is>
-      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6093,11 +5661,7 @@
       <c r="M110" t="n">
         <v>479024.57</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>G4706800260819C</t>
-        </is>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6147,11 +5711,7 @@
       <c r="M111" t="n">
         <v>473667.62</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>G4706800260823C</t>
-        </is>
-      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6201,11 +5761,7 @@
       <c r="M112" t="n">
         <v>454126.67</v>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>G4706800260825C</t>
-        </is>
-      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6255,11 +5811,7 @@
       <c r="M113" t="n">
         <v>421617.67</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>G4706800260827C</t>
-        </is>
-      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6309,11 +5861,7 @@
       <c r="M114" t="n">
         <v>421074.21</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>G4706800260829C</t>
-        </is>
-      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6363,11 +5911,7 @@
       <c r="M115" t="n">
         <v>395133.15</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>G4706800260831C</t>
-        </is>
-      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6409,11 +5953,7 @@
       <c r="M116" t="n">
         <v>346740.05</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>K1893800184195C</t>
-        </is>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6463,11 +6003,7 @@
       <c r="M117" t="n">
         <v>1846740.05</v>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>C0669700010171C</t>
-        </is>
-      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6517,11 +6053,7 @@
       <c r="M118" t="n">
         <v>246740.05</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>G7510300125938C</t>
-        </is>
-      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6563,11 +6095,7 @@
       <c r="M119" t="n">
         <v>246991.06</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>G1715000006019C</t>
-        </is>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6617,11 +6145,7 @@
       <c r="M120" t="n">
         <v>143747.06</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>G7666200095026C</t>
-        </is>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6667,11 +6191,7 @@
       <c r="M121" t="n">
         <v>173767.48</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>G7632300156345C</t>
-        </is>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6721,11 +6241,7 @@
       <c r="M122" t="n">
         <v>85493.67</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>G4225800093005C</t>
-        </is>
-      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6775,11 +6291,7 @@
       <c r="M123" t="n">
         <v>8993.67</v>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>G4225800093007C</t>
-        </is>
-      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6821,11 +6333,7 @@
       <c r="M124" t="n">
         <v>8870.389999999999</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>G5493100128748C</t>
-        </is>
-      </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6867,11 +6375,7 @@
       <c r="M125" t="n">
         <v>8861.09</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>G5493100155612C</t>
-        </is>
-      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6913,11 +6417,7 @@
       <c r="M126" t="n">
         <v>8811.09</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>G5493100319934C</t>
-        </is>
-      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6963,11 +6463,7 @@
       <c r="M127" t="n">
         <v>8529.18</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>K4977300463131C</t>
-        </is>
-      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7017,11 +6513,7 @@
       <c r="M128" t="n">
         <v>4929.18</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>G0412400224672C</t>
-        </is>
-      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7067,11 +6559,7 @@
       <c r="M129" t="n">
         <v>360550.43</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>G6433100139758C</t>
-        </is>
-      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7117,11 +6605,7 @@
       <c r="M130" t="n">
         <v>347045.24</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>K3619400071991C</t>
-        </is>
-      </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7163,11 +6647,7 @@
       <c r="M131" t="n">
         <v>329055.24</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>K3285800144558C</t>
-        </is>
-      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7217,11 +6697,7 @@
       <c r="M132" t="n">
         <v>315611.11</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>G0017500058686C</t>
-        </is>
-      </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7271,11 +6747,7 @@
       <c r="M133" t="n">
         <v>304496.21</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>G0017500058688C</t>
-        </is>
-      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7325,11 +6797,7 @@
       <c r="M134" t="n">
         <v>291744.96</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>G0017500058690C</t>
-        </is>
-      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7379,11 +6847,7 @@
       <c r="M135" t="n">
         <v>275032.21</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>G0017500058692C</t>
-        </is>
-      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7433,11 +6897,7 @@
       <c r="M136" t="n">
         <v>264433.96</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>G0017500058694C</t>
-        </is>
-      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7487,11 +6947,7 @@
       <c r="M137" t="n">
         <v>241456.61</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>G0017500058696C</t>
-        </is>
-      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7541,11 +6997,7 @@
       <c r="M138" t="n">
         <v>210779.26</v>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>G0017500058698C</t>
-        </is>
-      </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7595,11 +7047,7 @@
       <c r="M139" t="n">
         <v>179115.21</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>G0017500058700C</t>
-        </is>
-      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7649,11 +7097,7 @@
       <c r="M140" t="n">
         <v>164791.09</v>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>G0017500058702C</t>
-        </is>
-      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7703,11 +7147,7 @@
       <c r="M141" t="n">
         <v>136711.63</v>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>G0017500058704C</t>
-        </is>
-      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7757,11 +7197,7 @@
       <c r="M142" t="n">
         <v>131780.63</v>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>G0017500058706C</t>
-        </is>
-      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7811,11 +7247,7 @@
       <c r="M143" t="n">
         <v>88828.25</v>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>G0017500058716C</t>
-        </is>
-      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7857,11 +7289,7 @@
       <c r="M144" t="n">
         <v>40435.15</v>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>K8167600034171C</t>
-        </is>
-      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7911,11 +7339,7 @@
       <c r="M145" t="n">
         <v>32009.53</v>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>G6795900246485C</t>
-        </is>
-      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7965,11 +7389,7 @@
       <c r="M146" t="n">
         <v>30926.53</v>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>G6795900246487C</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -8019,11 +7439,7 @@
       <c r="M147" t="n">
         <v>19672.03</v>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>G6795900246489C</t>
-        </is>
-      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -8073,11 +7489,7 @@
       <c r="M148" t="n">
         <v>9950.01</v>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>G5020200086003C</t>
-        </is>
-      </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -8123,11 +7535,7 @@
       <c r="M149" t="n">
         <v>9651.469999999999</v>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>K2506800229560C</t>
-        </is>
-      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8177,11 +7585,7 @@
       <c r="M150" t="n">
         <v>19094.47</v>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>G3448300054981C</t>
-        </is>
-      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -8231,11 +7635,7 @@
       <c r="M151" t="n">
         <v>12799.14</v>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>G0134000083524C</t>
-        </is>
-      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8281,11 +7681,7 @@
       <c r="M152" t="n">
         <v>88105.39</v>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>G3124900109030C</t>
-        </is>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -8335,11 +7731,7 @@
       <c r="M153" t="n">
         <v>4158.02</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>G9819200078099C</t>
-        </is>
-      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8381,11 +7773,7 @@
       <c r="M154" t="n">
         <v>4097.3</v>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>G8379300174913C</t>
-        </is>
-      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8427,11 +7815,7 @@
       <c r="M155" t="n">
         <v>4089.86</v>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>G8379300174916C</t>
-        </is>
-      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8473,11 +7857,7 @@
       <c r="M156" t="n">
         <v>4039.86</v>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>G8379300424609C</t>
-        </is>
-      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8523,11 +7903,7 @@
       <c r="M157" t="n">
         <v>104496.8</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>G9404900052097C</t>
-        </is>
-      </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8577,11 +7953,7 @@
       <c r="M158" t="n">
         <v>2736.8</v>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>G6308400082363C</t>
-        </is>
-      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8627,11 +7999,7 @@
       <c r="M159" t="n">
         <v>314243.74</v>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>G7477500031617C</t>
-        </is>
-      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8681,11 +8049,7 @@
       <c r="M160" t="n">
         <v>302564.84</v>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>G3133500067001C</t>
-        </is>
-      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8735,11 +8099,7 @@
       <c r="M161" t="n">
         <v>280941.34</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>G3133500111179C</t>
-        </is>
-      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8789,11 +8149,7 @@
       <c r="M162" t="n">
         <v>277282.34</v>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>G3133500111181C</t>
-        </is>
-      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8843,11 +8199,7 @@
       <c r="M163" t="n">
         <v>268608.34</v>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>G3133500111183C</t>
-        </is>
-      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8897,11 +8249,7 @@
       <c r="M164" t="n">
         <v>268197.34</v>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>G3133500111185C</t>
-        </is>
-      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8951,11 +8299,7 @@
       <c r="M165" t="n">
         <v>265197.34</v>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>G3133500111187C</t>
-        </is>
-      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8997,11 +8341,7 @@
       <c r="M166" t="n">
         <v>92899.45</v>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>KV012400026970C</t>
-        </is>
-      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -9043,11 +8383,7 @@
       <c r="M167" t="n">
         <v>92894.95</v>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>KV001200083054C</t>
-        </is>
-      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -9089,11 +8425,7 @@
       <c r="M168" t="n">
         <v>74904.95</v>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>K5639400111815C</t>
-        </is>
-      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -9139,11 +8471,7 @@
       <c r="M169" t="n">
         <v>58666.94</v>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>K0372200115369C</t>
-        </is>
-      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -9185,11 +8513,7 @@
       <c r="M170" t="n">
         <v>10273.84</v>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>K1514800078275C</t>
-        </is>
-      </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -9239,11 +8563,7 @@
       <c r="M171" t="n">
         <v>20273.84</v>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>G7839500028696C</t>
-        </is>
-      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -9289,11 +8609,7 @@
       <c r="M172" t="n">
         <v>30332.17</v>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>G4855200144418C</t>
-        </is>
-      </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -9343,11 +8659,7 @@
       <c r="M173" t="n">
         <v>5332.17</v>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>G9779100080344C</t>
-        </is>
-      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -9393,11 +8705,7 @@
       <c r="M174" t="n">
         <v>161402.1</v>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>G9395700046832C</t>
-        </is>
-      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -9447,11 +8755,7 @@
       <c r="M175" t="n">
         <v>79453.67</v>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>G4646500054165C</t>
-        </is>
-      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -9501,11 +8805,7 @@
       <c r="M176" t="n">
         <v>2020.67</v>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>G4646500054167C</t>
-        </is>
-      </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -9547,11 +8847,7 @@
       <c r="M177" t="n">
         <v>1955.11</v>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>G2475800020855C</t>
-        </is>
-      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9593,11 +8889,7 @@
       <c r="M178" t="n">
         <v>1954.18</v>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>G2475800226763C</t>
-        </is>
-      </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9639,11 +8931,7 @@
       <c r="M179" t="n">
         <v>1904.18</v>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>G2475800333902C</t>
-        </is>
-      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9689,11 +8977,7 @@
       <c r="M180" t="n">
         <v>27101.06</v>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>G0166500045744C</t>
-        </is>
-      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9743,11 +9027,7 @@
       <c r="M181" t="n">
         <v>2101.06</v>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>G6294300044674C</t>
-        </is>
-      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9793,11 +9073,7 @@
       <c r="M182" t="n">
         <v>329692.03</v>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>G9083400082247C</t>
-        </is>
-      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9839,11 +9115,7 @@
       <c r="M183" t="n">
         <v>159220.88</v>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>KV896000039144C</t>
-        </is>
-      </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9885,11 +9157,7 @@
       <c r="M184" t="n">
         <v>159216.38</v>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>KV902400069909C</t>
-        </is>
-      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9939,11 +9207,7 @@
       <c r="M185" t="n">
         <v>147311.88</v>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>G4302400097702C</t>
-        </is>
-      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9993,11 +9257,7 @@
       <c r="M186" t="n">
         <v>131751.38</v>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>G4302400097704C</t>
-        </is>
-      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -10047,11 +9307,7 @@
       <c r="M187" t="n">
         <v>106570.88</v>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>G4302400097706C</t>
-        </is>
-      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -10101,11 +9357,7 @@
       <c r="M188" t="n">
         <v>102981.88</v>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>G4302400097708C</t>
-        </is>
-      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -10155,11 +9407,7 @@
       <c r="M189" t="n">
         <v>102769.98</v>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>G4302400097714C</t>
-        </is>
-      </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -10209,11 +9457,7 @@
       <c r="M190" t="n">
         <v>100720.98</v>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>G4302400097716C</t>
-        </is>
-      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -10263,11 +9507,7 @@
       <c r="M191" t="n">
         <v>93068.06</v>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>G4302400097718C</t>
-        </is>
-      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -10317,11 +9557,7 @@
       <c r="M192" t="n">
         <v>90068.06</v>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>G4302400097722C</t>
-        </is>
-      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -10363,11 +9599,7 @@
       <c r="M193" t="n">
         <v>72078.06</v>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>K6340700045983C</t>
-        </is>
-      </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -10413,11 +9645,7 @@
       <c r="M194" t="n">
         <v>54013.31</v>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>K7648700096751C</t>
-        </is>
-      </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -10459,11 +9687,7 @@
       <c r="M195" t="n">
         <v>5620.21</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>K0197100083604C</t>
-        </is>
-      </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10509,11 +9733,7 @@
       <c r="M196" t="n">
         <v>20741.25</v>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>G8435200066599C</t>
-        </is>
-      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -10563,11 +9783,7 @@
       <c r="M197" t="n">
         <v>741.25</v>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>G5537100025629C</t>
-        </is>
-      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -10609,11 +9825,7 @@
       <c r="M198" t="n">
         <v>767.61</v>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>G4316100000561C</t>
-        </is>
-      </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10659,11 +9871,7 @@
       <c r="M199" t="n">
         <v>177486.01</v>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>G7503000025866C</t>
-        </is>
-      </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10713,11 +9921,7 @@
       <c r="M200" t="n">
         <v>81526.00999999999</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>G2883400044143C</t>
-        </is>
-      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10767,11 +9971,7 @@
       <c r="M201" t="n">
         <v>5206.01</v>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>G2883400044145C</t>
-        </is>
-      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10813,11 +10013,7 @@
       <c r="M202" t="n">
         <v>5205.08</v>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>G2576800152574C</t>
-        </is>
-      </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10859,11 +10055,7 @@
       <c r="M203" t="n">
         <v>5162.8</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>G2576800170872C</t>
-        </is>
-      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10905,11 +10097,7 @@
       <c r="M204" t="n">
         <v>5112.8</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>G2576800654674C</t>
-        </is>
-      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10959,11 +10147,7 @@
       <c r="M205" t="n">
         <v>145112.8</v>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>G1989800124706C</t>
-        </is>
-      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -11013,11 +10197,7 @@
       <c r="M206" t="n">
         <v>295112.8</v>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>G1989700083250C</t>
-        </is>
-      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -11059,11 +10239,7 @@
       <c r="M207" t="n">
         <v>277122.8</v>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>K1563500055859C</t>
-        </is>
-      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -11109,11 +10285,7 @@
       <c r="M208" t="n">
         <v>257136.32</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>K3833700080807C</t>
-        </is>
-      </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -11163,11 +10335,7 @@
       <c r="M209" t="n">
         <v>239636.32</v>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>G9888200445473C</t>
-        </is>
-      </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -11217,11 +10385,7 @@
       <c r="M210" t="n">
         <v>227882.22</v>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>G9888200445475C</t>
-        </is>
-      </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -11271,11 +10435,7 @@
       <c r="M211" t="n">
         <v>227282.22</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>G9888200445477C</t>
-        </is>
-      </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -11317,11 +10477,7 @@
       <c r="M212" t="n">
         <v>52534.8</v>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>KV743400028922C</t>
-        </is>
-      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -11363,11 +10519,7 @@
       <c r="M213" t="n">
         <v>52530.3</v>
       </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>KV734900035162C</t>
-        </is>
-      </c>
+      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -11409,11 +10561,7 @@
       <c r="M214" t="n">
         <v>4137.2</v>
       </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>K1411200207264C</t>
-        </is>
-      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -11459,11 +10607,7 @@
       <c r="M215" t="n">
         <v>3451.65</v>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>K9033900110484C</t>
-        </is>
-      </c>
+      <c r="N215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -11509,11 +10653,7 @@
       <c r="M216" t="n">
         <v>28743.32</v>
       </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>G7734700088884C</t>
-        </is>
-      </c>
+      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11563,11 +10703,7 @@
       <c r="M217" t="n">
         <v>128743.32</v>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>G7734800240016C</t>
-        </is>
-      </c>
+      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -11617,11 +10753,7 @@
       <c r="M218" t="n">
         <v>101543.32</v>
       </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>G5232200134805C</t>
-        </is>
-      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11671,11 +10803,7 @@
       <c r="M219" t="n">
         <v>95272.32000000001</v>
       </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>G5232200134807C</t>
-        </is>
-      </c>
+      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11725,11 +10853,7 @@
       <c r="M220" t="n">
         <v>33397.32</v>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>G4856900037370C</t>
-        </is>
-      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11779,11 +10903,7 @@
       <c r="M221" t="n">
         <v>233397.32</v>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>G3200200123355C</t>
-        </is>
-      </c>
+      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11833,11 +10953,7 @@
       <c r="M222" t="n">
         <v>155964.32</v>
       </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>G9491300054707C</t>
-        </is>
-      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11887,11 +11003,7 @@
       <c r="M223" t="n">
         <v>61134.32</v>
       </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>G9491300054713C</t>
-        </is>
-      </c>
+      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11941,11 +11053,7 @@
       <c r="M224" t="n">
         <v>151134.32</v>
       </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>G3200300205923C</t>
-        </is>
-      </c>
+      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11995,11 +11103,7 @@
       <c r="M225" t="n">
         <v>1134.32</v>
       </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>K4161200080144C</t>
-        </is>
-      </c>
+      <c r="N225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -12049,11 +11153,7 @@
       <c r="M226" t="n">
         <v>24097.34</v>
       </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>G2485400076133C</t>
-        </is>
-      </c>
+      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -12095,11 +11195,7 @@
       <c r="M227" t="n">
         <v>24054.97</v>
       </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>G9078700124951C</t>
-        </is>
-      </c>
+      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -12141,11 +11237,7 @@
       <c r="M228" t="n">
         <v>24054.04</v>
       </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>G9078700147446C</t>
-        </is>
-      </c>
+      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -12187,11 +11279,7 @@
       <c r="M229" t="n">
         <v>24004.04</v>
       </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>G9078700558344C</t>
-        </is>
-      </c>
+      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -12233,11 +11321,7 @@
       <c r="M230" t="n">
         <v>24003.44</v>
       </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>K9019700182013C</t>
-        </is>
-      </c>
+      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -12287,11 +11371,7 @@
       <c r="M231" t="n">
         <v>8694.76</v>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>G8445700084052C</t>
-        </is>
-      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -12337,11 +11417,7 @@
       <c r="M232" t="n">
         <v>38694.76</v>
       </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>G0004800136761C</t>
-        </is>
-      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -12391,11 +11467,7 @@
       <c r="M233" t="n">
         <v>238694.76</v>
       </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>G9323500431225C</t>
-        </is>
-      </c>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -12445,11 +11517,7 @@
       <c r="M234" t="n">
         <v>226940.66</v>
       </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>G7523800054810C</t>
-        </is>
-      </c>
+      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -12491,11 +11559,7 @@
       <c r="M235" t="n">
         <v>95355.49000000001</v>
       </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>KV416300366199C</t>
-        </is>
-      </c>
+      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -12537,11 +11601,7 @@
       <c r="M236" t="n">
         <v>95351.49000000001</v>
       </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>KV430300064029C</t>
-        </is>
-      </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -12583,11 +11643,7 @@
       <c r="M237" t="n">
         <v>79671.49000000001</v>
       </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>K2351300063596C</t>
-        </is>
-      </c>
+      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -12633,11 +11689,7 @@
       <c r="M238" t="n">
         <v>65893.25999999999</v>
       </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>K3690300038060C</t>
-        </is>
-      </c>
+      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -12687,11 +11739,7 @@
       <c r="M239" t="n">
         <v>55893.26</v>
       </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>G0996000095183C</t>
-        </is>
-      </c>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -12733,11 +11781,7 @@
       <c r="M240" t="n">
         <v>13714.06</v>
       </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>K0558900038400C</t>
-        </is>
-      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12787,11 +11831,7 @@
       <c r="M241" t="n">
         <v>93714.06</v>
       </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>G5068400120908C</t>
-        </is>
-      </c>
+      <c r="N241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12841,11 +11881,7 @@
       <c r="M242" t="n">
         <v>17394.06</v>
       </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>G0572200050894C</t>
-        </is>
-      </c>
+      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12895,11 +11931,7 @@
       <c r="M243" t="n">
         <v>14514.06</v>
       </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>G9306200045142C</t>
-        </is>
-      </c>
+      <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12941,11 +11973,7 @@
       <c r="M244" t="n">
         <v>14485.94</v>
       </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>G0410900114086C</t>
-        </is>
-      </c>
+      <c r="N244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -12987,11 +12015,7 @@
       <c r="M245" t="n">
         <v>14485.01</v>
       </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>G0410900237205C</t>
-        </is>
-      </c>
+      <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -13033,11 +12057,7 @@
       <c r="M246" t="n">
         <v>14435.01</v>
       </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>G0410900603946C</t>
-        </is>
-      </c>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -13087,11 +12107,7 @@
       <c r="M247" t="n">
         <v>113435.01</v>
       </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>G2947500171228C</t>
-        </is>
-      </c>
+      <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -13141,11 +12157,7 @@
       <c r="M248" t="n">
         <v>14766.59</v>
       </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>G8633100088965C</t>
-        </is>
-      </c>
+      <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -13195,11 +12207,7 @@
       <c r="M249" t="n">
         <v>12966.59</v>
       </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>G9221400070114C</t>
-        </is>
-      </c>
+      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -13249,11 +12257,7 @@
       <c r="M250" t="n">
         <v>247966.59</v>
       </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>G7331300102012C</t>
-        </is>
-      </c>
+      <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -13299,11 +12303,7 @@
       <c r="M251" t="n">
         <v>233650.06</v>
       </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>K7855500066430C</t>
-        </is>
-      </c>
+      <c r="N251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -13345,11 +12345,7 @@
       <c r="M252" t="n">
         <v>217970.06</v>
       </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>K6281800060426C</t>
-        </is>
-      </c>
+      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -13391,11 +12387,7 @@
       <c r="M253" t="n">
         <v>86203.19</v>
       </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>KV995200082771C</t>
-        </is>
-      </c>
+      <c r="N253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -13437,11 +12429,7 @@
       <c r="M254" t="n">
         <v>86199.19</v>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>KV986000086782C</t>
-        </is>
-      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -13491,11 +12479,7 @@
       <c r="M255" t="n">
         <v>74445.09</v>
       </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>G4224600398440C</t>
-        </is>
-      </c>
+      <c r="N255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -13545,11 +12529,7 @@
       <c r="M256" t="n">
         <v>60495.09</v>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>G4224600398444C</t>
-        </is>
-      </c>
+      <c r="N256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -13599,11 +12579,7 @@
       <c r="M257" t="n">
         <v>51513.81</v>
       </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>G4224600398446C</t>
-        </is>
-      </c>
+      <c r="N257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -13653,11 +12629,7 @@
       <c r="M258" t="n">
         <v>49056.81</v>
       </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>G4224600398448C</t>
-        </is>
-      </c>
+      <c r="N258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -13707,11 +12679,7 @@
       <c r="M259" t="n">
         <v>47816.81</v>
       </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>G4224600398450C</t>
-        </is>
-      </c>
+      <c r="N259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -13761,11 +12729,7 @@
       <c r="M260" t="n">
         <v>46571.81</v>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>G4224600398452C</t>
-        </is>
-      </c>
+      <c r="N260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -13807,11 +12771,7 @@
       <c r="M261" t="n">
         <v>4392.61</v>
       </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>K8769800193200C</t>
-        </is>
-      </c>
+      <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -13861,11 +12821,7 @@
       <c r="M262" t="n">
         <v>2472.61</v>
       </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>G2782400141497C</t>
-        </is>
-      </c>
+      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -13907,11 +12863,7 @@
       <c r="M263" t="n">
         <v>2488.39</v>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>G1825600146092C</t>
-        </is>
-      </c>
+      <c r="N263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -13961,11 +12913,7 @@
       <c r="M264" t="n">
         <v>142488.39</v>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>G7354400620082C</t>
-        </is>
-      </c>
+      <c r="N264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -14015,11 +12963,7 @@
       <c r="M265" t="n">
         <v>42882.2</v>
       </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>G4128200141048C</t>
-        </is>
-      </c>
+      <c r="N265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -14069,11 +13013,7 @@
       <c r="M266" t="n">
         <v>42432.2</v>
       </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>G4128200141050C</t>
-        </is>
-      </c>
+      <c r="N266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -14115,11 +13055,7 @@
       <c r="M267" t="n">
         <v>42404.08</v>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>G9412200037904C</t>
-        </is>
-      </c>
+      <c r="N267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -14161,11 +13097,7 @@
       <c r="M268" t="n">
         <v>42401.29</v>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>G9412200076954C</t>
-        </is>
-      </c>
+      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -14207,11 +13139,7 @@
       <c r="M269" t="n">
         <v>42351.29</v>
       </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>G9412200524057C</t>
-        </is>
-      </c>
+      <c r="N269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -14257,11 +13185,7 @@
       <c r="M270" t="n">
         <v>40367.38</v>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>K9465200053170C</t>
-        </is>
-      </c>
+      <c r="N270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -14311,11 +13235,7 @@
       <c r="M271" t="n">
         <v>230367.38</v>
       </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>G8257700099637C</t>
-        </is>
-      </c>
+      <c r="N271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -14365,11 +13285,7 @@
       <c r="M272" t="n">
         <v>320367.38</v>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>G8257700101131C</t>
-        </is>
-      </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -14411,11 +13327,7 @@
       <c r="M273" t="n">
         <v>184751.81</v>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>KV349500188735C</t>
-        </is>
-      </c>
+      <c r="N273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -14457,11 +13369,7 @@
       <c r="M274" t="n">
         <v>184747.81</v>
       </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>KV360000139163C</t>
-        </is>
-      </c>
+      <c r="N274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -14511,11 +13419,7 @@
       <c r="M275" t="n">
         <v>172993.71</v>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>G6317600192320C</t>
-        </is>
-      </c>
+      <c r="N275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -14565,11 +13469,7 @@
       <c r="M276" t="n">
         <v>168673.71</v>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>G6317600192322C</t>
-        </is>
-      </c>
+      <c r="N276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -14619,11 +13519,7 @@
       <c r="M277" t="n">
         <v>132973.71</v>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>G6317600192324C</t>
-        </is>
-      </c>
+      <c r="N277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -14673,11 +13569,7 @@
       <c r="M278" t="n">
         <v>114547.75</v>
       </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>G6317600192326C</t>
-        </is>
-      </c>
+      <c r="N278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -14727,11 +13619,7 @@
       <c r="M279" t="n">
         <v>112651.75</v>
       </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>G6317600192328C</t>
-        </is>
-      </c>
+      <c r="N279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -14781,11 +13669,7 @@
       <c r="M280" t="n">
         <v>112301.95</v>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>G6317600192330C</t>
-        </is>
-      </c>
+      <c r="N280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -14827,11 +13711,7 @@
       <c r="M281" t="n">
         <v>70122.75</v>
       </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>K8863800161201C</t>
-        </is>
-      </c>
+      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -14877,11 +13757,7 @@
       <c r="M282" t="n">
         <v>54845.92</v>
       </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>K1059500050862C</t>
-        </is>
-      </c>
+      <c r="N282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -14923,11 +13799,7 @@
       <c r="M283" t="n">
         <v>39165.92</v>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>K2185800190007C</t>
-        </is>
-      </c>
+      <c r="N283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -14977,11 +13849,7 @@
       <c r="M284" t="n">
         <v>159165.92</v>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>G4155100184937C</t>
-        </is>
-      </c>
+      <c r="N284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -15031,11 +13899,7 @@
       <c r="M285" t="n">
         <v>63005.92</v>
       </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>G9664000167387C</t>
-        </is>
-      </c>
+      <c r="N285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -15085,11 +13949,7 @@
       <c r="M286" t="n">
         <v>13005.92</v>
       </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>G9664000167389C</t>
-        </is>
-      </c>
+      <c r="N286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -15131,11 +13991,7 @@
       <c r="M287" t="n">
         <v>12973.05</v>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>G3061400194370C</t>
-        </is>
-      </c>
+      <c r="N287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -15177,11 +14033,7 @@
       <c r="M288" t="n">
         <v>12971.19</v>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>G3061400194373C</t>
-        </is>
-      </c>
+      <c r="N288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -15223,11 +14075,7 @@
       <c r="M289" t="n">
         <v>12921.19</v>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>G3061400393751C</t>
-        </is>
-      </c>
+      <c r="N289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -15277,11 +14125,7 @@
       <c r="M290" t="n">
         <v>217921.19</v>
       </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>G1094200310255C</t>
-        </is>
-      </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -15331,11 +14175,7 @@
       <c r="M291" t="n">
         <v>206167.09</v>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>K9079800129587C</t>
-        </is>
-      </c>
+      <c r="N291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -15377,11 +14217,7 @@
       <c r="M292" t="n">
         <v>62997.13</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>K0207400047601C</t>
-        </is>
-      </c>
+      <c r="N292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -15423,11 +14259,7 @@
       <c r="M293" t="n">
         <v>62993.13</v>
       </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>KV034700048067C</t>
-        </is>
-      </c>
+      <c r="N293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -15469,11 +14301,7 @@
       <c r="M294" t="n">
         <v>20813.93</v>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>K9346000316865C</t>
-        </is>
-      </c>
+      <c r="N294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -15515,11 +14343,7 @@
       <c r="M295" t="n">
         <v>5133.93</v>
       </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>K9754500070943C</t>
-        </is>
-      </c>
+      <c r="N295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -15565,11 +14389,7 @@
       <c r="M296" t="n">
         <v>2580.49</v>
       </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>K9956500087446C</t>
-        </is>
-      </c>
+      <c r="N296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -15619,11 +14439,7 @@
       <c r="M297" t="n">
         <v>780.49</v>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>G6976800197578C</t>
-        </is>
-      </c>
+      <c r="N297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -15673,11 +14489,7 @@
       <c r="M298" t="n">
         <v>97780.49000000001</v>
       </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>G0180400079590C</t>
-        </is>
-      </c>
+      <c r="N298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -15727,11 +14539,7 @@
       <c r="M299" t="n">
         <v>1033.43</v>
       </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>G9028600166079C</t>
-        </is>
-      </c>
+      <c r="N299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -15781,11 +14589,7 @@
       <c r="M300" t="n">
         <v>3033.43</v>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>G0180200114230C</t>
-        </is>
-      </c>
+      <c r="N300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -15835,11 +14639,7 @@
       <c r="M301" t="n">
         <v>233.43</v>
       </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>G9028600196025C</t>
-        </is>
-      </c>
+      <c r="N301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -15881,11 +14681,7 @@
       <c r="M302" t="n">
         <v>214.8</v>
       </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>G1539900185381C</t>
-        </is>
-      </c>
+      <c r="N302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -15927,11 +14723,7 @@
       <c r="M303" t="n">
         <v>164.8</v>
       </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>G1539900552633C</t>
-        </is>
-      </c>
+      <c r="N303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -15973,11 +14765,7 @@
       <c r="M304" t="n">
         <v>164.2</v>
       </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>K1125000105189C</t>
-        </is>
-      </c>
+      <c r="N304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
